--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aaron\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA05304-B9A2-4C69-8006-1D6004CD59CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA30E29-4EDB-4AEB-8EA3-60D937C898D6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="125">
   <si>
     <t>Week of</t>
   </si>
@@ -385,6 +385,39 @@
   </si>
   <si>
     <t>Week of 4/09/2018</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>Code is better commented for viewing purposes
+Averaging function was fixed</t>
+  </si>
+  <si>
+    <t>On improvement of the averaging functionality of the code there was a large degragation of the speed of backend
+Several spelling and grammer errors in comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grammer and spelling resolved with the help of team member </t>
+  </si>
+  <si>
+    <t>Comment functions and make code more readable from a different developers viewpoint 
+Fix the update averaging functionality of code due to its inaccuracy</t>
+  </si>
+  <si>
+    <t>Fix the slow down of the updating the averages of the tables
+Improve further on the comments</t>
+  </si>
+  <si>
+    <t>Created several methods to allow for monthly update rather than yearly to improve speed
+Increased speed by deleting redundencies in code
+Improve commenting</t>
+  </si>
+  <si>
+    <t>Updating the whole year at once regardless of other speed improvments was still slow</t>
+  </si>
+  <si>
+    <t>Sped up backend by breaking down the updates into more fundamental parts.</t>
   </si>
 </sst>
 </file>
@@ -915,15 +948,15 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -931,7 +964,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -941,7 +974,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -955,7 +988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -969,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -983,7 +1016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1025,13 +1058,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1072,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1082,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1133,13 +1166,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1180,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1190,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1199,7 +1232,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1241,13 +1274,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1288,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1265,7 +1298,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1322,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1332,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1342,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1319,7 +1352,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1329,13 +1362,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +1376,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1386,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +1400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1377,7 +1410,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1387,7 +1420,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1430,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +1440,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1417,13 +1450,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +1464,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1474,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1498,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1508,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1518,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1528,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1507,24 +1540,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1539,15 +1572,15 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1588,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1598,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +1626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +1640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1664,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1641,13 +1674,13 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1688,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1698,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1768,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1749,13 +1782,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1796,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -1773,7 +1806,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1787,7 +1820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -1801,7 +1834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1862,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1857,13 +1890,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1904,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1881,7 +1914,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1895,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1905,7 +1938,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1915,7 +1948,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1958,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +1968,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1945,13 +1978,13 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +1992,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2002,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +2016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -1993,7 +2026,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2036,7 @@
       </c>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2046,7 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2056,7 @@
       </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -2033,13 +2066,13 @@
       </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2047,7 +2080,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2090,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>1</v>
       </c>
@@ -2071,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2114,7 @@
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2124,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2134,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2144,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -2123,6 +2156,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -2132,15 +2174,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2154,15 +2187,15 @@
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2170,7 +2203,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2180,7 +2213,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2208,7 +2241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2224,7 +2257,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2240,7 +2273,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2289,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2270,13 +2303,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2284,7 +2317,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2294,7 +2327,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2338,7 +2371,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2387,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2403,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2386,13 +2419,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2433,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2410,7 +2443,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2424,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2452,7 +2485,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +2513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2494,13 +2527,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2541,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2518,7 +2551,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2532,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2544,7 +2577,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2589,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2601,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2613,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2592,13 +2625,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2606,7 +2639,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2616,7 +2649,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2640,7 +2673,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2683,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2693,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2703,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2680,13 +2713,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2727,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2737,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2718,7 +2751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2728,7 +2761,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2738,7 +2771,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2781,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2791,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2770,6 +2803,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2782,12 +2821,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2797,20 +2830,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2818,7 +2851,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2861,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2870,7 +2903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2884,7 +2917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2912,13 +2945,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -2926,7 +2959,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2936,7 +2969,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2950,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +2997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2978,7 +3011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2992,7 +3025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3020,13 +3053,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3034,7 +3067,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3044,7 +3077,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3058,7 +3091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3086,7 +3119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3100,7 +3133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3128,13 +3161,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3175,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3152,7 +3185,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3222,7 +3255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3236,13 +3269,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3250,7 +3283,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3260,7 +3293,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3274,7 +3307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3284,7 +3317,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3294,7 +3327,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3304,7 +3337,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3314,7 +3347,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3324,13 +3357,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3338,7 +3371,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3381,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3372,7 +3405,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3382,7 +3415,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3392,7 +3425,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3402,7 +3435,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3414,6 +3447,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3426,12 +3465,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3442,19 +3475,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3462,7 +3495,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3472,7 +3505,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3486,7 +3519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3500,7 +3533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3514,7 +3547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +3561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3556,13 +3589,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3570,7 +3603,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3580,7 +3613,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3608,7 +3641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3636,7 +3669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3650,7 +3683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3664,13 +3697,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3678,7 +3711,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3688,7 +3721,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3702,7 +3735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3730,7 +3763,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3744,7 +3777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3772,13 +3805,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3786,7 +3819,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3796,7 +3829,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3810,63 +3843,83 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3874,7 +3927,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3884,7 +3937,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3898,7 +3951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3908,7 +3961,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3918,7 +3971,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3928,7 +3981,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3938,7 +3991,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3948,13 +4001,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +4015,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3972,7 +4025,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3986,7 +4039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3996,7 +4049,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +4059,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4069,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4026,7 +4079,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4038,6 +4091,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4050,12 +4109,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4070,15 +4123,15 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4086,7 +4139,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4096,7 +4149,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4110,7 +4163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4124,7 +4177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4166,7 +4219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4180,13 +4233,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4194,7 +4247,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4204,7 +4257,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4218,7 +4271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4232,7 +4285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4246,7 +4299,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4260,7 +4313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4274,7 +4327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4288,13 +4341,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4355,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4312,7 +4365,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4326,7 +4379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4340,7 +4393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4354,7 +4407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4368,7 +4421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4382,7 +4435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4396,13 +4449,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -4410,7 +4463,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -4420,7 +4473,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4444,7 +4497,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4454,7 +4507,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4517,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -4474,7 +4527,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -4484,13 +4537,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4498,7 +4551,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4508,7 +4561,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4522,7 +4575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4585,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4542,7 +4595,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4552,7 +4605,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4562,7 +4615,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4572,13 +4625,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4586,7 +4639,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4596,7 +4649,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4610,7 +4663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4620,7 +4673,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4630,7 +4683,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4640,7 +4693,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4650,7 +4703,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4662,6 +4715,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4674,12 +4733,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aaron\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA30E29-4EDB-4AEB-8EA3-60D937C898D6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2A5C41-6577-4AAA-886E-1B118686D0D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="129">
   <si>
     <t>Week of</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>Sped up backend by breaking down the updates into more fundamental parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various updates to existing and newly created documents </t>
+  </si>
+  <si>
+    <t>Update existing and newly created documents</t>
+  </si>
+  <si>
+    <t>Circumventing issue by remote desktop'ing into a Windows 10 machine with successfully configured and functional database</t>
+  </si>
+  <si>
+    <t>MySQL database on Mac OS 10.13 still persists, possibly due to age of laptop</t>
   </si>
 </sst>
 </file>
@@ -944,19 +956,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -964,7 +976,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -974,7 +986,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1058,13 +1070,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1084,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1094,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1166,13 +1178,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1192,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1190,7 +1202,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1274,13 +1286,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1300,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1298,7 +1310,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1334,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1344,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1354,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1364,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1362,13 +1374,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1388,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1398,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1422,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1442,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1450,13 +1462,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1476,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1486,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1510,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1520,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1530,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1540,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1540,622 +1552,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2168,12 +1567,625 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2183,19 +2195,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2215,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2225,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +2269,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2285,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2301,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2303,13 +2315,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2329,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2339,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +2383,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2387,7 +2399,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2415,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2419,13 +2431,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2445,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2443,7 +2455,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2527,13 +2539,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2553,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2551,7 +2563,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2577,7 +2589,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2613,7 +2625,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2625,13 +2637,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2651,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2649,7 +2661,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2685,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2683,7 +2695,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2693,7 +2705,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +2715,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2713,13 +2725,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2727,7 +2739,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2749,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2773,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2771,7 +2783,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2781,7 +2793,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2803,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2803,12 +2815,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2821,6 +2827,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2830,20 +2842,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2863,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2889,7 +2901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2903,7 +2915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2945,13 +2957,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +2971,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2969,7 +2981,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3053,13 +3065,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3079,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3077,7 +3089,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3119,7 +3131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3147,7 +3159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3161,13 +3173,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +3187,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3185,7 +3197,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3199,7 +3211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3269,13 +3281,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3283,7 +3295,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3293,7 +3305,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3307,63 +3319,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="D41" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D42" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D43" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D44" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3371,7 +3403,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3413,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3395,17 +3427,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3415,7 +3451,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3425,7 +3461,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3471,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3447,12 +3483,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3465,6 +3495,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3475,19 +3511,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3531,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3505,7 +3541,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3519,7 +3555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3533,7 +3569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3561,7 +3597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3589,13 +3625,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3603,7 +3639,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3613,7 +3649,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3627,7 +3663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3641,7 +3677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3655,7 +3691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3683,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3697,13 +3733,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3711,7 +3747,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3721,7 +3757,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3735,7 +3771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3749,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3763,7 +3799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3777,7 +3813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3791,7 +3827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3805,13 +3841,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +3855,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3829,7 +3865,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3843,7 +3879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3857,7 +3893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +3907,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3885,7 +3921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3899,7 +3935,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3913,13 +3949,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3927,7 +3963,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3973,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3951,7 +3987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3961,7 +3997,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3971,7 +4007,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3981,7 +4017,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +4027,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4001,13 +4037,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +4051,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4061,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +4075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4049,7 +4085,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4059,7 +4095,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4105,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4079,7 +4115,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4091,12 +4127,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4109,6 +4139,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4119,19 +4155,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4139,7 +4175,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4149,7 +4185,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4163,7 +4199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4177,7 +4213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4191,7 +4227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4205,7 +4241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4219,7 +4255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4233,13 +4269,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4247,7 +4283,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4257,7 +4293,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4271,7 +4307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4285,7 +4321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4299,7 +4335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4327,7 +4363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4341,13 +4377,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4355,7 +4391,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4365,7 +4401,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4379,7 +4415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4393,7 +4429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4407,7 +4443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4421,7 +4457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +4471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4449,13 +4485,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -4463,7 +4499,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -4473,7 +4509,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4487,7 +4523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4497,7 +4533,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4507,7 +4543,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +4553,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -4527,7 +4563,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -4537,13 +4573,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4551,7 +4587,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4561,7 +4597,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4575,7 +4611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4585,7 +4621,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4595,7 +4631,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4605,7 +4641,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4651,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4625,13 +4661,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4639,7 +4675,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4649,7 +4685,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4663,7 +4699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4673,7 +4709,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4683,7 +4719,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4693,7 +4729,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4703,7 +4739,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4715,12 +4751,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4733,6 +4763,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aaron\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2A5C41-6577-4AAA-886E-1B118686D0D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E5A042-5D10-4E48-9341-ADF72D3A7E15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="133">
   <si>
     <t>Week of</t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t>MySQL database on Mac OS 10.13 still persists, possibly due to age of laptop</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>devloper</t>
+  </si>
+  <si>
+    <t>struggle with the choice of design pattern and architecture design</t>
+  </si>
+  <si>
+    <t>talk to professor and read material</t>
   </si>
 </sst>
 </file>
@@ -960,15 +972,15 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -976,7 +988,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -986,7 +998,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1070,13 +1082,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1096,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1106,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1178,13 +1190,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1204,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1202,7 +1214,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1286,13 +1298,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1312,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1310,7 +1322,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1334,7 +1346,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1356,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1366,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1376,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1374,13 +1386,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1400,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1410,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1434,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +1444,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1454,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1464,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1462,13 +1474,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1488,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1498,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1522,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +1532,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1542,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1552,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1552,9 +1564,622 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1567,625 +2192,12 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2195,19 +2207,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2227,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2237,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2269,7 +2281,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2297,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2301,7 +2313,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2315,13 +2327,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2341,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2351,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2383,7 +2395,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2399,7 +2411,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2427,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2431,13 +2443,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2445,7 +2457,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2455,7 +2467,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2469,7 +2481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2539,13 +2551,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2565,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2563,7 +2575,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2601,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2613,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2613,7 +2625,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2637,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2637,13 +2649,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2651,7 +2663,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2673,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2685,7 +2697,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2707,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2717,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2725,13 +2737,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2751,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2761,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2773,7 +2785,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2783,7 +2795,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2803,7 +2815,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2815,6 +2827,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2827,12 +2845,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2842,20 +2854,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2863,7 +2875,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2885,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2957,13 +2969,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -2971,7 +2983,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2981,7 +2993,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3065,13 +3077,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3091,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3089,7 +3101,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3173,13 +3185,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3199,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3197,7 +3209,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3281,13 +3293,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3295,7 +3307,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3305,7 +3317,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3373,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +3387,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3389,13 +3401,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3403,7 +3415,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +3425,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3427,7 +3439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3441,7 +3453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3451,7 +3463,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3461,7 +3473,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3471,7 +3483,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3483,6 +3495,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3495,12 +3513,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3515,15 +3527,15 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3531,7 +3543,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3541,7 +3553,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3555,7 +3567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3583,7 +3595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3611,7 +3623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3625,13 +3637,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3639,7 +3651,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3649,7 +3661,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3663,7 +3675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3719,7 +3731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3733,13 +3745,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3747,7 +3759,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3757,7 +3769,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +3825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +3839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3841,13 +3853,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3855,7 +3867,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3865,7 +3877,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3879,7 +3891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3907,7 +3919,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3921,7 +3933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3949,13 +3961,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3975,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +3985,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3987,7 +3999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3997,7 +4009,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4007,7 +4019,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4017,7 +4029,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +4039,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4037,13 +4049,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -4051,7 +4063,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -4061,7 +4073,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4085,7 +4097,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4095,7 +4107,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4105,7 +4117,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4115,7 +4127,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4127,6 +4139,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4139,12 +4157,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4155,19 +4167,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4185,7 +4197,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4227,7 +4239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4241,7 +4253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4255,7 +4267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4269,13 +4281,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4283,7 +4295,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4293,7 +4305,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4321,7 +4333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4377,13 +4389,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4391,7 +4403,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4401,7 +4413,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4415,7 +4427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4443,7 +4455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4485,13 +4497,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -4499,7 +4511,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -4509,7 +4521,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4523,63 +4535,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="C35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +4619,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4597,7 +4629,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4611,7 +4643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4621,7 +4653,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4663,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4641,7 +4673,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4651,7 +4683,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4661,13 +4693,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4675,7 +4707,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4685,7 +4717,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4699,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4709,7 +4741,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4719,7 +4751,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4729,7 +4761,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4739,7 +4771,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4751,6 +4783,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4763,12 +4801,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E5A042-5D10-4E48-9341-ADF72D3A7E15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ABD6F2-DAE8-427E-8FCE-35EC653E3D24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="134">
   <si>
     <t>Week of</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>talk to professor and read material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer </t>
   </si>
 </sst>
 </file>
@@ -972,15 +975,15 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -988,7 +991,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1001,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1082,13 +1085,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1106,7 +1109,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1190,13 +1193,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1207,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1217,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1298,13 +1301,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1315,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1322,7 +1325,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1349,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1359,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1369,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1386,13 +1389,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1403,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1413,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1447,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1457,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1467,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1474,13 +1477,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1491,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1501,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1525,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1535,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1545,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1555,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1564,24 +1567,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1596,15 +1599,15 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1698,13 +1701,13 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1715,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1725,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1806,13 +1809,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1823,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1833,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1914,13 +1917,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1931,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1938,7 +1941,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +1965,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -1992,7 +1995,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -2002,13 +2005,13 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2029,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -2050,7 +2053,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2060,7 +2063,7 @@
       </c>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -2090,13 +2093,13 @@
       </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2117,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>1</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2141,7 @@
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2148,7 +2151,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2161,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -2180,6 +2183,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2189,15 +2201,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2211,15 +2214,15 @@
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2227,7 +2230,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2240,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2281,7 +2284,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2300,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2313,7 +2316,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2327,13 +2330,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2344,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +2398,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2414,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2430,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2443,13 +2446,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2457,7 +2460,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2467,7 +2470,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2551,13 +2554,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2565,7 +2568,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2575,7 +2578,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2616,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2637,7 +2640,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2649,13 +2652,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2666,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2697,7 +2700,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2710,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2720,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2737,13 +2740,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2751,7 +2754,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2785,7 +2788,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2798,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2818,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2827,12 +2830,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2845,6 +2842,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2858,16 +2861,16 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2878,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2885,7 +2888,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2969,13 +2972,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -2983,7 +2986,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2993,7 +2996,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3077,13 +3080,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3091,7 +3094,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3101,7 +3104,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3185,13 +3188,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3199,7 +3202,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3209,7 +3212,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3293,13 +3296,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3310,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3317,7 +3320,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3401,13 +3404,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3415,7 +3418,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3428,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +3466,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3476,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3495,12 +3498,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3513,6 +3510,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3523,19 +3526,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3546,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3553,7 +3556,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3637,13 +3640,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3651,7 +3654,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3661,7 +3664,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3745,13 +3748,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3769,7 +3772,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +3800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3853,13 +3856,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3867,7 +3870,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3877,7 +3880,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3961,13 +3964,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3988,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3999,17 +4002,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4026,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4029,7 +4036,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4039,7 +4046,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4049,13 +4056,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -4063,7 +4070,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -4073,7 +4080,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4087,7 +4094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4097,7 +4104,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4107,7 +4114,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4117,7 +4124,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4134,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4139,12 +4146,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4157,6 +4158,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4167,19 +4174,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4187,7 +4194,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4197,7 +4204,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4225,7 +4232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4281,13 +4288,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4295,7 +4302,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4305,7 +4312,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +4326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4347,7 +4354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4361,7 +4368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +4382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4389,13 +4396,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4403,7 +4410,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4413,7 +4420,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4427,7 +4434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4441,7 +4448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4455,7 +4462,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4483,7 +4490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4497,13 +4504,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -4511,7 +4518,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -4521,7 +4528,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4535,7 +4542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4563,7 +4570,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4577,7 +4584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -4605,13 +4612,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4619,7 +4626,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4629,7 +4636,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4653,7 +4660,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4663,7 +4670,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4680,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4683,7 +4690,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4693,13 +4700,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4707,7 +4714,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4717,7 +4724,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4741,7 +4748,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4758,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4768,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4771,7 +4778,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4783,12 +4790,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4801,6 +4802,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ABD6F2-DAE8-427E-8FCE-35EC653E3D24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C1AE8A-939F-48FB-9067-D746AF2B4E32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Cade" sheetId="5" r:id="rId5"/>
     <sheet name="Xujia" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="139">
   <si>
     <t>Week of</t>
   </si>
@@ -390,10 +390,6 @@
     <t>Product owner</t>
   </si>
   <si>
-    <t>Code is better commented for viewing purposes
-Averaging function was fixed</t>
-  </si>
-  <si>
     <t>On improvement of the averaging functionality of the code there was a large degragation of the speed of backend
 Several spelling and grammer errors in comments</t>
   </si>
@@ -401,50 +397,82 @@
     <t xml:space="preserve">Grammer and spelling resolved with the help of team member </t>
   </si>
   <si>
+    <t>Updating the whole year at once regardless of other speed improvments was still slow</t>
+  </si>
+  <si>
+    <t>Sped up backend by breaking down the updates into more fundamental parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various updates to existing and newly created documents </t>
+  </si>
+  <si>
+    <t>Update existing and newly created documents</t>
+  </si>
+  <si>
+    <t>Circumventing issue by remote desktop'ing into a Windows 10 machine with successfully configured and functional database</t>
+  </si>
+  <si>
+    <t>MySQL database on Mac OS 10.13 still persists, possibly due to age of laptop</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>devloper</t>
+  </si>
+  <si>
+    <t>struggle with the choice of design pattern and architecture design</t>
+  </si>
+  <si>
+    <t>talk to professor and read material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting the jar file to run. </t>
+  </si>
+  <si>
+    <t>Update documents 
+Create the executable jar</t>
+  </si>
+  <si>
+    <t>Jar file was created and would open first screen but will not run farther</t>
+  </si>
+  <si>
     <t>Comment functions and make code more readable from a different developers viewpoint 
-Fix the update averaging functionality of code due to its inaccuracy</t>
+Fix the update averaging functionality of code due to its inaccuracy
+Create backend methods to satisfy use cases</t>
   </si>
   <si>
     <t>Fix the slow down of the updating the averages of the tables
-Improve further on the comments</t>
+Improve further on the comments
+Comment functions and make code more readable from a different developers viewpoint 
+Fix the update averaging functionality of code due to its inaccuracy
+Create backend methods to satisfy use cases</t>
+  </si>
+  <si>
+    <t>Create executable jar file
+Update documents
+Update and fix code edgecases</t>
+  </si>
+  <si>
+    <t>Create executable jar file
+Update documents
+Create executable jar file
+Update documents
+Update and fix code edgecases</t>
+  </si>
+  <si>
+    <t>Code is better commented for viewing purposes
+Code Created</t>
   </si>
   <si>
     <t>Created several methods to allow for monthly update rather than yearly to improve speed
 Increased speed by deleting redundencies in code
-Improve commenting</t>
-  </si>
-  <si>
-    <t>Updating the whole year at once regardless of other speed improvments was still slow</t>
-  </si>
-  <si>
-    <t>Sped up backend by breaking down the updates into more fundamental parts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various updates to existing and newly created documents </t>
-  </si>
-  <si>
-    <t>Update existing and newly created documents</t>
-  </si>
-  <si>
-    <t>Circumventing issue by remote desktop'ing into a Windows 10 machine with successfully configured and functional database</t>
-  </si>
-  <si>
-    <t>MySQL database on Mac OS 10.13 still persists, possibly due to age of laptop</t>
-  </si>
-  <si>
-    <t>developer</t>
-  </si>
-  <si>
-    <t>devloper</t>
-  </si>
-  <si>
-    <t>struggle with the choice of design pattern and architecture design</t>
-  </si>
-  <si>
-    <t>talk to professor and read material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developer </t>
+Improve commenting
+Code is better commented for viewing purposes
+Code Created</t>
   </si>
 </sst>
 </file>
@@ -3353,13 +3381,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3367,13 +3395,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -3381,13 +3409,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
@@ -3395,13 +3423,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3526,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,32 +3936,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
@@ -3941,13 +3969,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3955,13 +3983,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4013,38 +4041,50 @@
         <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -4547,13 +4587,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4561,13 +4601,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,13 +4615,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4589,13 +4629,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4603,13 +4643,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C1AE8A-939F-48FB-9067-D746AF2B4E32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970E54E-0AC3-406D-AAD1-60331678D28E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="145">
   <si>
     <t>Week of</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>developer</t>
-  </si>
-  <si>
-    <t>devloper</t>
   </si>
   <si>
     <t>struggle with the choice of design pattern and architecture design</t>
@@ -473,6 +470,27 @@
 Improve commenting
 Code is better commented for viewing purposes
 Code Created</t>
+  </si>
+  <si>
+    <t>Start developing main functionalities of the application.</t>
+  </si>
+  <si>
+    <t>Finish developing main functionalities.</t>
+  </si>
+  <si>
+    <t>Getting right outputs from methods.</t>
+  </si>
+  <si>
+    <t>Main functionalities were finished and tested.</t>
+  </si>
+  <si>
+    <t>Make these functionalities to work with the frontend.</t>
+  </si>
+  <si>
+    <t>Return outputs from functions to fields in the frontend.</t>
+  </si>
+  <si>
+    <t>Find correct way to print results from methods to fields in the frontend.</t>
   </si>
 </sst>
 </file>
@@ -999,19 +1017,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1019,7 +1037,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1047,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1113,13 +1131,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1145,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1155,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1221,13 +1239,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1253,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1245,7 +1263,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1329,13 +1347,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1361,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1353,7 +1371,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1367,47 +1385,63 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D32" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1415,15 +1449,17 @@
       <c r="C35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1467,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1477,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1501,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1511,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1521,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1531,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1505,13 +1541,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1555,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1565,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1553,7 +1589,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1599,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1609,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +1619,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1595,24 +1631,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1627,15 +1663,15 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1679,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1689,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1755,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1729,13 +1765,13 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1779,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
@@ -1753,7 +1789,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1767,7 +1803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
@@ -1781,7 +1817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -1837,13 +1873,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1851,7 +1887,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1897,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +1925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +1953,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +1967,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -1945,13 +1981,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +1995,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1969,7 +2005,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +2019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1993,7 +2029,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2039,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2049,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2059,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -2033,13 +2069,13 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2083,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2093,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -2071,7 +2107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2117,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2127,7 @@
       </c>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2137,7 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2147,7 @@
       </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -2121,13 +2157,13 @@
       </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2171,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2181,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>1</v>
       </c>
@@ -2159,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2205,7 @@
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2215,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2225,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>5</v>
       </c>
@@ -2199,7 +2235,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -2211,6 +2247,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
@@ -2220,15 +2265,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2238,19 +2274,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2294,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2268,7 +2304,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2282,7 +2318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2296,7 +2332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2348,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2328,7 +2364,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2380,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2358,13 +2394,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2372,7 +2408,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2382,7 +2418,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2396,7 +2432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2426,7 +2462,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2478,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2494,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2474,13 +2510,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2488,7 +2524,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2498,7 +2534,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2582,13 +2618,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2596,7 +2632,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2606,7 +2642,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2632,7 +2668,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2644,7 +2680,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2692,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2704,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2680,13 +2716,13 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2730,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2740,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2718,7 +2754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2728,7 +2764,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2738,7 +2774,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2784,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2794,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2768,13 +2804,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2782,7 +2818,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2828,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2806,7 +2842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2816,7 +2852,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2826,7 +2862,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2872,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +2882,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2858,6 +2894,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2870,12 +2912,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2885,20 +2921,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2906,7 +2942,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2916,7 +2952,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2930,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2944,7 +2980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +2994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +3008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3000,13 +3036,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3014,7 +3050,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3024,7 +3060,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +3074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3052,7 +3088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3080,7 +3116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +3130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3108,13 +3144,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3122,7 +3158,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3132,7 +3168,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3146,7 +3182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3174,7 +3210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3188,7 +3224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3202,7 +3238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3216,13 +3252,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3230,7 +3266,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3240,7 +3276,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3254,7 +3290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3282,7 +3318,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3296,7 +3332,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3310,7 +3346,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3324,13 +3360,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3338,7 +3374,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3348,7 +3384,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3390,7 +3426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3404,7 +3440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3418,7 +3454,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3432,13 +3468,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3446,7 +3482,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3492,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3484,7 +3520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3530,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3504,7 +3540,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3514,7 +3550,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3526,6 +3562,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3538,12 +3580,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3554,19 +3590,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3574,7 +3610,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3584,7 +3620,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3598,7 +3634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3612,7 +3648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3626,7 +3662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3640,7 +3676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3654,7 +3690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3668,13 +3704,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +3718,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3692,7 +3728,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3706,7 +3742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3720,7 +3756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3734,7 +3770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3748,7 +3784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3762,7 +3798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3776,13 +3812,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3790,7 +3826,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3800,7 +3836,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3814,7 +3850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3828,7 +3864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3842,7 +3878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3856,7 +3892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3870,7 +3906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3884,13 +3920,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3898,7 +3934,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3908,7 +3944,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +3958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3936,35 +3972,35 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3978,7 +4014,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3992,13 +4028,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -4006,7 +4042,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4052,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -4030,7 +4066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -4041,10 +4077,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4055,38 +4091,38 @@
         <v>3</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4096,13 +4132,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -4110,7 +4146,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4156,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4134,7 +4170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4144,7 +4180,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +4190,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4164,7 +4200,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4210,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4186,6 +4222,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4198,12 +4240,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4214,19 +4250,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4234,7 +4270,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4244,7 +4280,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4258,7 +4294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4272,7 +4308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4286,7 +4322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4300,7 +4336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4314,7 +4350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4328,13 +4364,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4342,7 +4378,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4352,7 +4388,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4366,7 +4402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4380,7 +4416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4394,7 +4430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4408,7 +4444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4422,7 +4458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4436,13 +4472,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4486,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4460,7 +4496,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4474,7 +4510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4488,7 +4524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4502,7 +4538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4516,7 +4552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4530,7 +4566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4544,121 +4580,121 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4702,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4676,7 +4712,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4690,7 +4726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4700,7 +4736,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4710,7 +4746,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4756,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4730,7 +4766,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4740,13 +4776,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4754,7 +4790,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4764,7 +4800,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4778,7 +4814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4788,7 +4824,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4798,7 +4834,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4808,7 +4844,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4818,7 +4854,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4830,6 +4866,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4842,12 +4884,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970E54E-0AC3-406D-AAD1-60331678D28E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3CEDD-246B-4C5D-80AD-B2575FD639C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="157">
   <si>
     <t>Week of</t>
   </si>
@@ -491,6 +491,42 @@
   </si>
   <si>
     <t>Find correct way to print results from methods to fields in the frontend.</t>
+  </si>
+  <si>
+    <t>Finished Java password encryption Documentation</t>
+  </si>
+  <si>
+    <t>Minor encryption funtionality changes</t>
+  </si>
+  <si>
+    <t>Change request for api improvement</t>
+  </si>
+  <si>
+    <t>api improved</t>
+  </si>
+  <si>
+    <t>Week of 4/2/2018</t>
+  </si>
+  <si>
+    <t>SCRUM master</t>
+  </si>
+  <si>
+    <t>Junit testing for java</t>
+  </si>
+  <si>
+    <t>Finished java integration for making JAR</t>
+  </si>
+  <si>
+    <t>Finish documentation and unit testing</t>
+  </si>
+  <si>
+    <t>Junit issues</t>
+  </si>
+  <si>
+    <t>Jar compilation issues</t>
+  </si>
+  <si>
+    <t>Jar compilation successful</t>
   </si>
 </sst>
 </file>
@@ -1017,19 +1053,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1073,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1083,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1061,7 +1097,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1131,13 +1167,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1181,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1191,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1233,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1239,13 +1275,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1289,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1299,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1347,13 +1383,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1397,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1371,7 +1407,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1399,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1441,7 +1477,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1453,13 +1489,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +1503,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1513,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1491,7 +1527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1537,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1547,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1557,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1567,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1541,13 +1577,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1591,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1601,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1625,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1635,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1645,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1655,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1631,622 +1667,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2259,12 +1682,625 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2274,19 +2310,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2330,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2304,7 +2340,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2332,7 +2368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2348,7 +2384,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2364,7 +2400,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2416,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2394,13 +2430,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +2444,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2418,7 +2454,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2432,7 +2468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2498,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2514,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2530,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2510,13 +2546,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2524,7 +2560,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2534,7 +2570,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2562,7 +2598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2576,7 +2612,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2590,7 +2626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2618,13 +2654,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2668,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2642,7 +2678,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2666,9 +2702,11 @@
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D31" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2678,9 +2716,11 @@
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D32" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2690,9 +2730,11 @@
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2702,9 +2744,11 @@
       <c r="C34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2714,15 +2758,17 @@
       <c r="C35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2730,9 +2776,9 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
@@ -2740,7 +2786,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2754,63 +2800,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D40" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D41" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D44" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2818,7 +2884,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +2894,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2852,7 +2918,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2862,7 +2928,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2872,7 +2938,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2882,7 +2948,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2894,12 +2960,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2912,6 +2972,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2921,20 +2987,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="29.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -2942,7 +3008,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2952,7 +3018,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2966,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +3046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2994,7 +3060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +3074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3036,13 +3102,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +3116,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3060,7 +3126,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3074,7 +3140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3088,7 +3154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3102,7 +3168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3144,13 +3210,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3158,7 +3224,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3168,7 +3234,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3182,7 +3248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3196,7 +3262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +3276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3252,13 +3318,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3266,7 +3332,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3276,7 +3342,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3304,7 +3370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3318,7 +3384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3332,7 +3398,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3412,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3360,13 +3426,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3374,7 +3440,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3384,7 +3450,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3398,7 +3464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3412,7 +3478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3426,7 +3492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3440,7 +3506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3454,7 +3520,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3468,13 +3534,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3482,7 +3548,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3558,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3596,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3606,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3550,7 +3616,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3562,12 +3628,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3580,6 +3640,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3590,19 +3656,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +3676,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3620,7 +3686,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3634,7 +3700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3648,7 +3714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3662,7 +3728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3756,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3704,13 +3770,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3784,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3728,7 +3794,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3742,7 +3808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3756,7 +3822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3770,7 +3836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3784,7 +3850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3798,7 +3864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3812,13 +3878,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3892,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3836,7 +3902,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3850,7 +3916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3864,7 +3930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3878,7 +3944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3906,7 +3972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3920,13 +3986,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3934,7 +4000,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3944,7 +4010,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +4024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3972,7 +4038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3986,7 +4052,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4000,7 +4066,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4028,13 +4094,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -4042,7 +4108,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4118,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -4066,7 +4132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -4080,7 +4146,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4094,7 +4160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4108,7 +4174,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4132,13 +4198,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -4146,7 +4212,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -4156,7 +4222,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4170,7 +4236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4180,7 +4246,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4190,7 +4256,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4200,7 +4266,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4210,7 +4276,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4222,12 +4288,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4240,6 +4300,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4254,15 +4320,15 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4336,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4280,7 +4346,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4294,7 +4360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4308,7 +4374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4322,7 +4388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4336,7 +4402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4364,13 +4430,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4378,7 +4444,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4388,7 +4454,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4402,7 +4468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4416,7 +4482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4430,7 +4496,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4472,13 +4538,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4486,7 +4552,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4496,7 +4562,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4510,7 +4576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4524,7 +4590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4538,7 +4604,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4552,7 +4618,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4566,7 +4632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4580,13 +4646,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -4594,7 +4660,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>109</v>
       </c>
@@ -4604,7 +4670,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4618,7 +4684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4632,7 +4698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4646,7 +4712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4660,7 +4726,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4674,7 +4740,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4688,13 +4754,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +4768,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4712,7 +4778,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4726,7 +4792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4736,7 +4802,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4746,7 +4812,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4822,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4766,7 +4832,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4776,13 +4842,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4790,7 +4856,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4800,7 +4866,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4814,7 +4880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4890,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4834,7 +4900,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4844,7 +4910,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4854,7 +4920,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4866,12 +4932,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4884,6 +4944,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3CEDD-246B-4C5D-80AD-B2575FD639C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B0C3B-13BA-4230-B90E-D5F35CAC9A6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="21600" windowHeight="10056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="169">
   <si>
     <t>Week of</t>
   </si>
@@ -527,6 +527,42 @@
   </si>
   <si>
     <t>Jar compilation successful</t>
+  </si>
+  <si>
+    <t>Week of  4/2/2018</t>
+  </si>
+  <si>
+    <t>Week of 4/9/2018</t>
+  </si>
+  <si>
+    <t>Backend Junit Test</t>
+  </si>
+  <si>
+    <t>Backend Junit Test Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tasks to be performed this week</t>
+  </si>
+  <si>
+    <t>Unfamiliar with Junit</t>
+  </si>
+  <si>
+    <t>Learned to use Junit</t>
+  </si>
+  <si>
+    <t>Create Junit tests to fail</t>
+  </si>
+  <si>
+    <t>Got Junit tests to fail</t>
+  </si>
+  <si>
+    <t>SRS Update</t>
+  </si>
+  <si>
+    <t>Communication on Changes</t>
+  </si>
+  <si>
+    <t>Communicated Changes</t>
   </si>
 </sst>
 </file>
@@ -1057,15 +1093,15 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1109,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1119,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1167,13 +1203,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1217,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1227,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1275,13 +1311,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1325,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1335,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1313,7 +1349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1383,13 +1419,13 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1433,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -1407,7 +1443,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1449,7 +1485,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1499,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1513,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1489,13 +1525,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1539,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1549,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1573,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1583,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1557,7 +1593,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1603,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -1577,13 +1613,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1627,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1637,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1661,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1671,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1681,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1691,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1667,9 +1703,662 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1682,625 +2371,12 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2310,19 +2386,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -2330,7 +2406,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2416,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2354,7 +2430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2368,7 +2444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2384,7 +2460,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2476,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2416,7 +2492,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2430,13 +2506,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2444,7 +2520,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -2454,7 +2530,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2468,7 +2544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2498,7 +2574,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2590,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2530,7 +2606,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2546,13 +2622,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2636,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -2570,7 +2646,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2584,7 +2660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2598,7 +2674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2612,7 +2688,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2702,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2654,13 +2730,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
@@ -2668,7 +2744,7 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -2678,7 +2754,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2706,7 +2782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2720,7 +2796,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2762,13 +2838,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -2776,7 +2852,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>149</v>
       </c>
@@ -2786,7 +2862,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2800,7 +2876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2814,7 +2890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2828,7 +2904,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2842,7 +2918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +2932,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2870,13 +2946,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
@@ -2884,7 +2960,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
@@ -2894,7 +2970,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2918,7 +2994,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2928,7 +3004,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +3014,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +3024,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -2960,6 +3036,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2972,12 +3054,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2991,16 +3067,16 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3008,7 +3084,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3018,7 +3094,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3046,7 +3122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3060,7 +3136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3074,7 +3150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3102,13 +3178,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3116,7 +3192,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3126,7 +3202,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3140,7 +3216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3154,7 +3230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3168,7 +3244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3182,7 +3258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3210,13 +3286,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3300,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3234,7 +3310,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3248,7 +3324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3262,7 +3338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3276,7 +3352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3290,7 +3366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3304,7 +3380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3318,13 +3394,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -3332,7 +3408,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -3342,7 +3418,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3356,7 +3432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3370,7 +3446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3384,7 +3460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3474,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3426,13 +3502,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3440,7 +3516,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>114</v>
       </c>
@@ -3450,7 +3526,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3464,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3478,7 +3554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3506,7 +3582,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3596,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3534,13 +3610,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3624,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3634,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3572,7 +3648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3672,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3606,7 +3682,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3616,7 +3692,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3628,6 +3704,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3640,12 +3722,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3660,15 +3736,15 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3752,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -3686,7 +3762,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3728,7 +3804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3742,7 +3818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3756,7 +3832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3770,13 +3846,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +3860,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3870,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3808,7 +3884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3822,7 +3898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3836,7 +3912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3850,7 +3926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3864,7 +3940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3878,13 +3954,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
@@ -3892,7 +3968,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -3902,7 +3978,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3916,7 +3992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3930,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3944,7 +4020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3958,7 +4034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3972,7 +4048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3986,13 +4062,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -4000,7 +4076,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
@@ -4010,7 +4086,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4024,7 +4100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4038,7 +4114,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4052,7 +4128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4066,7 +4142,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4080,7 +4156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4094,13 +4170,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -4108,7 +4184,7 @@
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4194,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -4132,7 +4208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -4146,7 +4222,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4188,7 +4264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4198,13 +4274,13 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +4288,7 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4298,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4236,7 +4312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4246,7 +4322,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4256,7 +4332,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4266,7 +4342,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4352,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4288,6 +4364,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4300,12 +4382,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4316,19 +4392,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -4336,7 +4412,7 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -4346,7 +4422,7 @@
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4360,7 +4436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4374,7 +4450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4388,7 +4464,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +4478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4416,7 +4492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4430,13 +4506,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4444,7 +4520,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
@@ -4454,7 +4530,7 @@
       </c>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4468,7 +4544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4482,7 +4558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4496,7 +4572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4524,7 +4600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4538,13 +4614,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4628,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -4562,7 +4638,7 @@
       </c>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4590,7 +4666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4604,7 +4680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4618,7 +4694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4632,7 +4708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4646,13 +4722,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -4660,7 +4736,7 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>109</v>
       </c>
@@ -4670,7 +4746,7 @@
       </c>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4684,7 +4760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4698,7 +4774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4712,7 +4788,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4726,7 +4802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +4816,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4754,13 +4830,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
@@ -4768,7 +4844,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>18</v>
       </c>
@@ -4778,7 +4854,7 @@
       </c>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4792,7 +4868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4802,7 +4878,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4812,7 +4888,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4822,7 +4898,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4832,7 +4908,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4842,13 +4918,13 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>11</v>
       </c>
@@ -4856,7 +4932,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
@@ -4866,7 +4942,7 @@
       </c>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -4880,7 +4956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -4890,7 +4966,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4900,7 +4976,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4910,7 +4986,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -4920,7 +4996,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -4932,6 +5008,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4944,12 +5026,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B0C3B-13BA-4230-B90E-D5F35CAC9A6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BDEEB9-F281-4B7B-82AC-9160A6B2089E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="21600" windowHeight="10056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="21600" windowHeight="10056" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="175">
   <si>
     <t>Week of</t>
   </si>
@@ -379,12 +379,6 @@
   </si>
   <si>
     <t>Database management on Mac OS, issues with creating role drop down menu for creating account</t>
-  </si>
-  <si>
-    <t>Week of 4/02/2018</t>
-  </si>
-  <si>
-    <t>Week of 4/09/2018</t>
   </si>
   <si>
     <t>Product owner</t>
@@ -529,12 +523,6 @@
     <t>Jar compilation successful</t>
   </si>
   <si>
-    <t>Week of  4/2/2018</t>
-  </si>
-  <si>
-    <t>Week of 4/9/2018</t>
-  </si>
-  <si>
     <t>Backend Junit Test</t>
   </si>
   <si>
@@ -563,6 +551,36 @@
   </si>
   <si>
     <t>Communicated Changes</t>
+  </si>
+  <si>
+    <t>Formatted outputs from methods.</t>
+  </si>
+  <si>
+    <t>Managed product backlog and combine all the coding together.</t>
+  </si>
+  <si>
+    <t>Make sure application runs and gives correct results.</t>
+  </si>
+  <si>
+    <t>Forgot to display error messages.</t>
+  </si>
+  <si>
+    <t>Implemented alerts in the application.</t>
+  </si>
+  <si>
+    <t>Managed product backlog and decide which user stories won't be implemented due to time constraints.</t>
+  </si>
+  <si>
+    <t>Continue working on remaining functionalities.</t>
+  </si>
+  <si>
+    <t>Create an exe file for the app.</t>
+  </si>
+  <si>
+    <t>Issues creating an exe file for the app.</t>
+  </si>
+  <si>
+    <t>Week of 4/13/2018</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,192 +1444,214 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8" t="s">
+    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="17" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8"/>
+      <c r="D42" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
@@ -1703,24 +1743,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1731,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2110,13 +2150,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2124,13 +2164,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2138,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>5</v>
@@ -2152,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>6</v>
@@ -2176,12 +2216,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21"/>
     </row>
@@ -2218,13 +2258,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2232,13 +2272,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2246,13 +2286,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2260,13 +2300,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2359,6 +2399,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2368,15 +2417,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2387,7 +2427,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,7 +2833,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -2807,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2821,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2835,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2853,12 +2893,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21"/>
     </row>
@@ -2881,13 +2921,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -2895,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -2909,13 +2949,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2923,13 +2963,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2943,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3036,12 +3076,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3054,6 +3088,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3063,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3518,11 +3558,11 @@
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21"/>
     </row>
@@ -3559,13 +3599,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3573,13 +3613,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -3587,13 +3627,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
@@ -3601,13 +3641,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3704,12 +3744,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3722,6 +3756,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3733,7 +3773,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4111,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
@@ -4119,13 +4159,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
@@ -4133,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -4147,13 +4187,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -4161,13 +4201,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4186,11 +4226,11 @@
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21"/>
     </row>
@@ -4219,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -4233,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -4241,13 +4281,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -4255,13 +4295,13 @@
         <v>5</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4364,12 +4404,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4382,6 +4416,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4392,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4765,13 +4805,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4779,13 +4819,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4793,13 +4833,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -4807,13 +4847,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4821,13 +4861,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4845,12 +4885,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D38" s="21"/>
     </row>
@@ -5008,12 +5048,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -5026,6 +5060,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BDEEB9-F281-4B7B-82AC-9160A6B2089E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FDA03-48F1-4B03-9AD6-9DDAB7290EBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="936" yWindow="0" windowWidth="21600" windowHeight="10056" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="180">
   <si>
     <t>Week of</t>
   </si>
@@ -581,6 +581,21 @@
   </si>
   <si>
     <t>Week of 4/13/2018</t>
+  </si>
+  <si>
+    <t>figure out which design pattern to use</t>
+  </si>
+  <si>
+    <t>various updates to existing and newly created documents, create csv file</t>
+  </si>
+  <si>
+    <t>various updates to existing and newly created documents, finish csv file</t>
+  </si>
+  <si>
+    <t>struggle with the choice of design pattern</t>
+  </si>
+  <si>
+    <t>go over all the design patterns</t>
   </si>
 </sst>
 </file>
@@ -769,16 +784,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
@@ -1120,22 +1135,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -1228,22 +1243,22 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1336,22 +1351,22 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -1444,22 +1459,22 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -1552,22 +1567,22 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -1660,22 +1675,22 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -1743,9 +1758,662 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1758,665 +2426,12 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2426,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
@@ -2439,22 +2454,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2553,22 +2568,22 @@
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -2669,22 +2684,22 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -2777,22 +2792,22 @@
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -2885,22 +2900,22 @@
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -2993,22 +3008,22 @@
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -3076,6 +3091,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3088,12 +3109,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,22 +3132,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -3225,22 +3240,22 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -3333,22 +3348,22 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -3441,22 +3456,22 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -3549,22 +3564,22 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -3657,22 +3672,22 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -3744,6 +3759,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3756,12 +3777,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3785,22 +3800,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -3893,22 +3908,22 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -4001,22 +4016,22 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -4109,22 +4124,22 @@
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -4217,22 +4232,22 @@
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
@@ -4321,22 +4336,22 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
@@ -4404,6 +4419,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4416,12 +4437,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4432,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4445,22 +4460,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4561,14 +4576,14 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -4661,22 +4676,22 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -4769,22 +4784,22 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
@@ -4877,22 +4892,22 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -4912,51 +4927,71 @@
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="C42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
@@ -4965,22 +5000,22 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="A46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -5048,6 +5083,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -5060,12 +5101,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FDA03-48F1-4B03-9AD6-9DDAB7290EBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9AE401-F910-4E5B-BA2B-CF0C718FAC25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="21600" windowHeight="10056" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="21600" windowHeight="10050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -784,16 +784,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,33 +1126,33 @@
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1236,31 +1236,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1344,31 +1344,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1452,31 +1452,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -1560,31 +1560,31 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -1668,31 +1668,31 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1758,24 +1758,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1790,33 +1790,33 @@
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1892,31 +1892,31 @@
       </c>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -2000,31 +2000,31 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -2108,31 +2108,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -2216,31 +2216,31 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>4</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -2324,31 +2324,31 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>1</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>5</v>
       </c>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -2414,6 +2414,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -2423,15 +2432,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2445,33 +2445,33 @@
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2561,31 +2561,31 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -2677,31 +2677,31 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2785,31 +2785,31 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2893,31 +2893,31 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3001,31 +3001,31 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -3091,12 +3091,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3109,6 +3103,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3118,38 +3118,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3233,31 +3233,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -3341,31 +3341,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3449,31 +3449,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -3557,31 +3557,31 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -3665,31 +3665,31 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3759,12 +3759,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3777,6 +3771,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3791,33 +3791,33 @@
       <selection activeCell="A38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3901,31 +3901,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -4009,31 +4009,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -4117,31 +4117,31 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4225,31 +4225,31 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4329,31 +4329,31 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4419,12 +4419,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4437,6 +4431,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4447,37 +4447,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4561,13 +4561,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4575,17 +4575,17 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4669,31 +4669,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4777,31 +4777,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4885,31 +4885,31 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4947,11 +4947,11 @@
       <c r="C41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -4993,31 +4993,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -5083,12 +5083,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -5101,6 +5095,12 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_Team_Member_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/Software2project/documents/Deliverable_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9AE401-F910-4E5B-BA2B-CF0C718FAC25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="21600" windowHeight="10050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="440" windowWidth="21600" windowHeight="15100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mayur" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
     <sheet name="Cade" sheetId="5" r:id="rId5"/>
     <sheet name="Xujia" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -580,9 +585,6 @@
     <t>Issues creating an exe file for the app.</t>
   </si>
   <si>
-    <t>Week of 4/13/2018</t>
-  </si>
-  <si>
     <t>figure out which design pattern to use</t>
   </si>
   <si>
@@ -596,12 +598,15 @@
   </si>
   <si>
     <t>go over all the design patterns</t>
+  </si>
+  <si>
+    <t>Week of 4/9/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,42 +680,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,10 +723,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,16 +789,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,40 +1124,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1236,31 +1241,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1344,31 +1349,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1452,31 +1457,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1523,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -1560,31 +1565,31 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -1668,31 +1673,31 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -1706,7 +1711,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1721,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1731,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1741,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1751,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -1758,9 +1763,662 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -1773,1324 +2431,677 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3103,662 +3114,662 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -3771,12 +3782,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3784,40 +3789,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D38"/>
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3831,7 +3836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3845,7 +3850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -3901,31 +3906,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -3939,7 +3944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -3953,7 +3958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -3981,7 +3986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -4009,31 +4014,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -4061,7 +4066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4080,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4089,7 +4094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -4117,31 +4122,31 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4183,7 +4188,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4197,7 +4202,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +4216,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4225,31 +4230,31 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>2</v>
       </c>
@@ -4277,7 +4282,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -4319,7 +4324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
@@ -4329,31 +4334,31 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>1</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>2</v>
       </c>
@@ -4377,7 +4382,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -4387,7 +4392,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4402,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -4407,7 +4412,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -4419,6 +4424,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -4431,12 +4442,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4444,40 +4449,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4505,7 +4510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -4561,13 +4566,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -4575,17 +4580,17 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -4599,7 +4604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -4613,7 +4618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -4627,7 +4632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -4641,7 +4646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -4655,7 +4660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -4669,31 +4674,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
@@ -4707,7 +4712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -4777,31 +4782,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
@@ -4829,7 +4834,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>6</v>
       </c>
@@ -4885,31 +4890,31 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>1</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -4937,87 +4942,87 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="17" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -5041,7 +5046,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5056,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
@@ -5061,7 +5066,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -5071,7 +5076,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
@@ -5083,6 +5088,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
@@ -5095,12 +5106,6 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
